--- a/sequences/17_retrieval_1.xlsx
+++ b/sequences/17_retrieval_1.xlsx
@@ -55,582 +55,582 @@
     <t>type4</t>
   </si>
   <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
     <t>hauen</t>
   </si>
   <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>bitten</t>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>jagen</t>
   </si>
   <si>
     <t>siegen</t>
   </si>
   <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>antun</t>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>erben</t>
   </si>
   <si>
     <t>grüßen</t>
   </si>
   <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
     <t>kosten</t>
   </si>
   <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
     <t>flower/flower025.jpg</t>
   </si>
   <si>
@@ -1108,10 +1108,13 @@
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>same/old/uncued</t>
+  </si>
+  <si>
     <t>same/old/cued</t>
   </si>
   <si>
-    <t>same/old/uncued</t>
+    <t>other/old/cued</t>
   </si>
   <si>
     <t>other/new/uncued</t>
@@ -1121,9 +1124,6 @@
   </si>
   <si>
     <t>correct/old/cued</t>
-  </si>
-  <si>
-    <t>other/old/cued</t>
   </si>
   <si>
     <t>flower/flower096.jpg</t>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
         <v>363</v>
@@ -1866,19 +1866,19 @@
         <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K2" t="s">
         <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M2" t="s">
         <v>225</v>
       </c>
       <c r="N2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1901,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
         <v>364</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="J3" t="s">
         <v>363</v>
@@ -1916,13 +1916,13 @@
         <v>401</v>
       </c>
       <c r="L3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M3" t="s">
         <v>206</v>
       </c>
       <c r="N3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1986,31 +1986,31 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
         <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K5" t="s">
         <v>208</v>
       </c>
       <c r="L5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M5" t="s">
         <v>435</v>
       </c>
       <c r="N5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2030,31 +2030,31 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K6" t="s">
         <v>402</v>
       </c>
       <c r="L6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M6" t="s">
         <v>209</v>
       </c>
       <c r="N6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2080,16 +2080,16 @@
         <v>338</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
         <v>290</v>
       </c>
       <c r="J7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="L7" t="s">
         <v>363</v>
@@ -2098,7 +2098,7 @@
         <v>210</v>
       </c>
       <c r="N7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2130,19 +2130,19 @@
         <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K8" t="s">
         <v>403</v>
       </c>
       <c r="L8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M8" t="s">
         <v>251</v>
       </c>
       <c r="N8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2168,10 +2168,10 @@
         <v>260</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="J9" t="s">
         <v>363</v>
@@ -2180,13 +2180,13 @@
         <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M9" t="s">
         <v>436</v>
       </c>
       <c r="N9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2256,25 +2256,25 @@
         <v>339</v>
       </c>
       <c r="H11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
         <v>363</v>
       </c>
       <c r="K11" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="L11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M11" t="s">
         <v>213</v>
       </c>
       <c r="N11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
         <v>363</v>
@@ -2306,19 +2306,19 @@
         <v>313</v>
       </c>
       <c r="J12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K12" t="s">
         <v>404</v>
       </c>
       <c r="L12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M12" t="s">
         <v>214</v>
       </c>
       <c r="N12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2438,19 +2438,19 @@
         <v>304</v>
       </c>
       <c r="J15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K15" t="s">
         <v>405</v>
       </c>
       <c r="L15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M15" t="s">
         <v>215</v>
       </c>
       <c r="N15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2476,25 +2476,25 @@
         <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I16" t="s">
         <v>370</v>
       </c>
       <c r="J16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K16" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L16" t="s">
         <v>363</v>
       </c>
       <c r="M16" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2696,25 +2696,25 @@
         <v>217</v>
       </c>
       <c r="H21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
         <v>363</v>
       </c>
       <c r="K21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="L21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M21" t="s">
         <v>437</v>
       </c>
       <c r="N21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2740,10 +2740,10 @@
         <v>256</v>
       </c>
       <c r="H22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="J22" t="s">
         <v>363</v>
@@ -2752,13 +2752,13 @@
         <v>406</v>
       </c>
       <c r="L22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I24" t="s">
         <v>219</v>
@@ -2837,7 +2837,7 @@
         <v>368</v>
       </c>
       <c r="K24" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s">
         <v>364</v>
@@ -2846,7 +2846,7 @@
         <v>438</v>
       </c>
       <c r="N24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2910,31 +2910,31 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I26" t="s">
         <v>371</v>
       </c>
       <c r="J26" t="s">
+        <v>367</v>
+      </c>
+      <c r="K26" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" t="s">
         <v>366</v>
-      </c>
-      <c r="K26" t="s">
-        <v>285</v>
-      </c>
-      <c r="L26" t="s">
-        <v>363</v>
       </c>
       <c r="M26" t="s">
         <v>220</v>
       </c>
       <c r="N26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2954,16 +2954,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>340</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
         <v>365</v>
@@ -2972,10 +2972,10 @@
         <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="N27" t="s">
         <v>363</v>
@@ -3004,7 +3004,7 @@
         <v>306</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I28" t="s">
         <v>298</v>
@@ -3016,13 +3016,13 @@
         <v>222</v>
       </c>
       <c r="L28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M28" t="s">
         <v>439</v>
       </c>
       <c r="N28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3048,10 +3048,10 @@
         <v>341</v>
       </c>
       <c r="H29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
         <v>363</v>
@@ -3060,13 +3060,13 @@
         <v>294</v>
       </c>
       <c r="L29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M29" t="s">
         <v>223</v>
       </c>
       <c r="N29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H30" t="s">
         <v>363</v>
@@ -3098,19 +3098,19 @@
         <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M30" t="s">
         <v>440</v>
       </c>
       <c r="N30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3136,16 +3136,16 @@
         <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I31" t="s">
         <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
         <v>363</v>
@@ -3154,7 +3154,7 @@
         <v>288</v>
       </c>
       <c r="N31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3262,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I34" t="s">
         <v>226</v>
@@ -3280,10 +3280,10 @@
         <v>407</v>
       </c>
       <c r="L34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s">
         <v>364</v>
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J35" t="s">
         <v>363</v>
@@ -3324,13 +3324,13 @@
         <v>227</v>
       </c>
       <c r="L35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s">
         <v>441</v>
       </c>
       <c r="N35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
         <v>364</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="J36" t="s">
         <v>363</v>
@@ -3374,7 +3374,7 @@
         <v>442</v>
       </c>
       <c r="N36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3400,22 +3400,22 @@
         <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
         <v>408</v>
       </c>
       <c r="L37" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M37" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="N37" t="s">
         <v>363</v>
@@ -3438,28 +3438,28 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
         <v>230</v>
       </c>
       <c r="H38" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I38" t="s">
         <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
         <v>409</v>
       </c>
       <c r="L38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s">
         <v>365</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="H39" t="s">
         <v>363</v>
@@ -3494,19 +3494,19 @@
         <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K39" t="s">
         <v>231</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3570,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="H41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I41" t="s">
         <v>216</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
         <v>410</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s">
         <v>232</v>
       </c>
       <c r="N41" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3752,22 +3752,22 @@
         <v>304</v>
       </c>
       <c r="H45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I45" t="s">
         <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
         <v>233</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="N45" t="s">
         <v>363</v>
@@ -3796,10 +3796,10 @@
         <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="J46" t="s">
         <v>363</v>
@@ -3808,13 +3808,13 @@
         <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3840,19 +3840,19 @@
         <v>235</v>
       </c>
       <c r="H47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I47" t="s">
         <v>374</v>
       </c>
       <c r="J47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s">
         <v>310</v>
@@ -3881,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I48" t="s">
         <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s">
         <v>363</v>
@@ -3902,7 +3902,7 @@
         <v>236</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3928,10 +3928,10 @@
         <v>343</v>
       </c>
       <c r="H49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I49" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J49" t="s">
         <v>363</v>
@@ -3940,13 +3940,13 @@
         <v>302</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s">
         <v>237</v>
       </c>
       <c r="N49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4060,16 +4060,16 @@
         <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I52" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K52" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s">
         <v>363</v>
@@ -4078,7 +4078,7 @@
         <v>443</v>
       </c>
       <c r="N52" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4104,19 +4104,19 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I53" t="s">
         <v>376</v>
       </c>
       <c r="J53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K53" t="s">
         <v>318</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s">
         <v>283</v>
@@ -4142,25 +4142,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I54" t="s">
         <v>377</v>
       </c>
       <c r="J54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K54" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s">
         <v>248</v>
@@ -4186,31 +4186,31 @@
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
         <v>344</v>
       </c>
       <c r="H55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I55" t="s">
         <v>241</v>
       </c>
       <c r="J55" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K55" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="L55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s">
         <v>304</v>
       </c>
       <c r="N55" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4280,22 +4280,22 @@
         <v>345</v>
       </c>
       <c r="H57" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I57" t="s">
         <v>242</v>
       </c>
       <c r="J57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K57" t="s">
         <v>265</v>
       </c>
       <c r="L57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="N57" t="s">
         <v>363</v>
@@ -4324,19 +4324,19 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I58" t="s">
         <v>378</v>
       </c>
       <c r="J58" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K58" t="s">
         <v>321</v>
       </c>
       <c r="L58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s">
         <v>269</v>
@@ -4365,28 +4365,28 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="H59" t="s">
         <v>363</v>
       </c>
       <c r="I59" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="J59" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s">
         <v>412</v>
       </c>
       <c r="L59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s">
         <v>244</v>
       </c>
       <c r="N59" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4453,25 +4453,25 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I61" t="s">
         <v>245</v>
       </c>
       <c r="J61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K61" t="s">
         <v>413</v>
       </c>
       <c r="L61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="N61" t="s">
         <v>363</v>
@@ -4544,7 +4544,7 @@
         <v>290</v>
       </c>
       <c r="H63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I63" t="s">
         <v>289</v>
@@ -4556,13 +4556,13 @@
         <v>246</v>
       </c>
       <c r="L63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s">
         <v>444</v>
       </c>
       <c r="N63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4582,16 +4582,16 @@
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
         <v>247</v>
       </c>
       <c r="H64" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I64" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="J64" t="s">
         <v>365</v>
@@ -4600,10 +4600,10 @@
         <v>414</v>
       </c>
       <c r="L64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="N64" t="s">
         <v>363</v>
@@ -4632,19 +4632,19 @@
         <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I65" t="s">
         <v>379</v>
       </c>
       <c r="J65" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K65" t="s">
         <v>263</v>
       </c>
       <c r="L65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s">
         <v>261</v>
@@ -4673,28 +4673,28 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H66" t="s">
         <v>363</v>
       </c>
       <c r="I66" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="J66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K66" t="s">
         <v>415</v>
       </c>
       <c r="L66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M66" t="s">
         <v>249</v>
       </c>
       <c r="N66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4720,7 +4720,7 @@
         <v>346</v>
       </c>
       <c r="H67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I67" t="s">
         <v>314</v>
@@ -4732,13 +4732,13 @@
         <v>260</v>
       </c>
       <c r="L67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M67" t="s">
         <v>250</v>
       </c>
       <c r="N67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4808,22 +4808,22 @@
         <v>251</v>
       </c>
       <c r="H69" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I69" t="s">
         <v>380</v>
       </c>
       <c r="J69" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K69" t="s">
         <v>234</v>
       </c>
       <c r="L69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M69" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="N69" t="s">
         <v>363</v>
@@ -4846,25 +4846,25 @@
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H70" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I70" t="s">
         <v>381</v>
       </c>
       <c r="J70" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K70" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M70" t="s">
         <v>252</v>
@@ -4896,13 +4896,13 @@
         <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I71" t="s">
         <v>253</v>
       </c>
       <c r="J71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K71" t="s">
         <v>218</v>
@@ -4914,7 +4914,7 @@
         <v>445</v>
       </c>
       <c r="N71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4940,7 +4940,7 @@
         <v>347</v>
       </c>
       <c r="H72" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I72" t="s">
         <v>283</v>
@@ -4952,13 +4952,13 @@
         <v>290</v>
       </c>
       <c r="L72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M72" t="s">
         <v>254</v>
       </c>
       <c r="N72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5069,28 +5069,28 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H75" t="s">
         <v>363</v>
       </c>
       <c r="I75" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="J75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K75" t="s">
         <v>255</v>
       </c>
       <c r="L75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M75" t="s">
         <v>446</v>
       </c>
       <c r="N75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5113,22 +5113,22 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I76" t="s">
         <v>256</v>
       </c>
       <c r="J76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K76" t="s">
         <v>416</v>
       </c>
       <c r="L76" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M76" t="s">
         <v>268</v>
@@ -5204,10 +5204,10 @@
         <v>257</v>
       </c>
       <c r="H78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I78" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="J78" t="s">
         <v>363</v>
@@ -5216,13 +5216,13 @@
         <v>272</v>
       </c>
       <c r="L78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M78" t="s">
         <v>447</v>
       </c>
       <c r="N78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5242,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
         <v>214</v>
       </c>
       <c r="H79" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I79" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="J79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K79" t="s">
         <v>417</v>
       </c>
       <c r="L79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M79" t="s">
         <v>258</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
         <v>259</v>
@@ -5298,19 +5298,19 @@
         <v>382</v>
       </c>
       <c r="J80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K80" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="L80" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M80" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="N80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5336,22 +5336,22 @@
         <v>348</v>
       </c>
       <c r="H81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I81" t="s">
         <v>283</v>
       </c>
       <c r="J81" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K81" t="s">
         <v>260</v>
       </c>
       <c r="L81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N81" t="s">
         <v>363</v>
@@ -5468,22 +5468,22 @@
         <v>261</v>
       </c>
       <c r="H84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I84" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="J84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K84" t="s">
         <v>418</v>
       </c>
       <c r="L84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M84" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="N84" t="s">
         <v>363</v>
@@ -5509,28 +5509,28 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="H85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I85" t="s">
         <v>383</v>
       </c>
       <c r="J85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K85" t="s">
         <v>262</v>
       </c>
       <c r="L85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M85" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="N85" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5556,16 +5556,16 @@
         <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I86" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s">
         <v>363</v>
@@ -5574,7 +5574,7 @@
         <v>448</v>
       </c>
       <c r="N86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5600,16 +5600,16 @@
         <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I87" t="s">
         <v>250</v>
       </c>
       <c r="J87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="L87" t="s">
         <v>363</v>
@@ -5618,7 +5618,7 @@
         <v>264</v>
       </c>
       <c r="N87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5641,28 +5641,28 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="H88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I88" t="s">
         <v>384</v>
       </c>
       <c r="J88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K88" t="s">
         <v>265</v>
       </c>
       <c r="L88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M88" t="s">
         <v>303</v>
       </c>
       <c r="N88" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5732,22 +5732,22 @@
         <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I90" t="s">
         <v>385</v>
       </c>
       <c r="J90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K90" t="s">
         <v>266</v>
       </c>
       <c r="L90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M90" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="N90" t="s">
         <v>363</v>
@@ -5864,22 +5864,22 @@
         <v>267</v>
       </c>
       <c r="H93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I93" t="s">
         <v>386</v>
       </c>
       <c r="J93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K93" t="s">
         <v>313</v>
       </c>
       <c r="L93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M93" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="N93" t="s">
         <v>363</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
         <v>363</v>
@@ -5914,19 +5914,19 @@
         <v>268</v>
       </c>
       <c r="J94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K94" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s">
         <v>449</v>
       </c>
       <c r="N94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5958,19 +5958,19 @@
         <v>269</v>
       </c>
       <c r="J95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K95" t="s">
         <v>320</v>
       </c>
       <c r="L95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M95" t="s">
         <v>450</v>
       </c>
       <c r="N95" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5996,10 +5996,10 @@
         <v>350</v>
       </c>
       <c r="H96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I96" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J96" t="s">
         <v>363</v>
@@ -6008,13 +6008,13 @@
         <v>270</v>
       </c>
       <c r="L96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M96" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N96" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6040,19 +6040,19 @@
         <v>271</v>
       </c>
       <c r="H97" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I97" t="s">
         <v>270</v>
       </c>
       <c r="J97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K97" t="s">
         <v>419</v>
       </c>
       <c r="L97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M97" t="s">
         <v>249</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="H99" t="s">
         <v>363</v>
@@ -6134,19 +6134,19 @@
         <v>387</v>
       </c>
       <c r="J99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K99" t="s">
         <v>272</v>
       </c>
       <c r="L99" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M99" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="N99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6166,19 +6166,19 @@
         <v>0</v>
       </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
         <v>351</v>
       </c>
       <c r="H100" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J100" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K100" t="s">
         <v>273</v>
@@ -6190,7 +6190,7 @@
         <v>237</v>
       </c>
       <c r="N100" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6260,16 +6260,16 @@
         <v>274</v>
       </c>
       <c r="H102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I102" t="s">
         <v>388</v>
       </c>
       <c r="J102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K102" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="L102" t="s">
         <v>363</v>
@@ -6278,7 +6278,7 @@
         <v>263</v>
       </c>
       <c r="N102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6298,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="H103" t="s">
         <v>365</v>
@@ -6316,13 +6316,13 @@
         <v>420</v>
       </c>
       <c r="L103" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M103" t="s">
         <v>275</v>
       </c>
       <c r="N103" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>276</v>
@@ -6395,22 +6395,22 @@
         <v>368</v>
       </c>
       <c r="I105" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="J105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K105" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="L105" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M105" t="s">
         <v>451</v>
       </c>
       <c r="N105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H109" t="s">
         <v>363</v>
@@ -6574,19 +6574,19 @@
         <v>277</v>
       </c>
       <c r="J109" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K109" t="s">
         <v>421</v>
       </c>
       <c r="L109" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M109" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="N109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>278</v>
@@ -6618,10 +6618,10 @@
         <v>389</v>
       </c>
       <c r="J110" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K110" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L110" t="s">
         <v>364</v>
@@ -6653,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="H111" t="s">
         <v>363</v>
@@ -6662,10 +6662,10 @@
         <v>279</v>
       </c>
       <c r="J111" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L111" t="s">
         <v>365</v>
@@ -6674,7 +6674,7 @@
         <v>452</v>
       </c>
       <c r="N111" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6700,13 +6700,13 @@
         <v>280</v>
       </c>
       <c r="H112" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I112" t="s">
         <v>233</v>
       </c>
       <c r="J112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K112" t="s">
         <v>237</v>
@@ -6718,7 +6718,7 @@
         <v>453</v>
       </c>
       <c r="N112" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6741,28 +6741,28 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="H113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I113" t="s">
         <v>281</v>
       </c>
       <c r="J113" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K113" t="s">
         <v>422</v>
       </c>
       <c r="L113" t="s">
+        <v>367</v>
+      </c>
+      <c r="M113" t="s">
+        <v>242</v>
+      </c>
+      <c r="N113" t="s">
         <v>366</v>
-      </c>
-      <c r="M113" t="s">
-        <v>275</v>
-      </c>
-      <c r="N113" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6970,19 +6970,19 @@
         <v>274</v>
       </c>
       <c r="J118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K118" t="s">
         <v>282</v>
       </c>
       <c r="L118" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M118" t="s">
         <v>454</v>
       </c>
       <c r="N118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="H119" t="s">
         <v>363</v>
@@ -7014,19 +7014,19 @@
         <v>283</v>
       </c>
       <c r="J119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K119" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="L119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M119" t="s">
         <v>455</v>
       </c>
       <c r="N119" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7140,25 +7140,25 @@
         <v>352</v>
       </c>
       <c r="H122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I122" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J122" t="s">
         <v>363</v>
       </c>
       <c r="K122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M122" t="s">
         <v>284</v>
       </c>
       <c r="N122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7310,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="s">
         <v>285</v>
       </c>
       <c r="H126" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I126" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="J126" t="s">
         <v>365</v>
@@ -7328,13 +7328,13 @@
         <v>249</v>
       </c>
       <c r="L126" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s">
         <v>456</v>
       </c>
       <c r="N126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="s">
         <v>302</v>
@@ -7366,19 +7366,19 @@
         <v>286</v>
       </c>
       <c r="J127" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K127" t="s">
         <v>423</v>
       </c>
       <c r="L127" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M127" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="N127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H128" t="s">
         <v>363</v>
       </c>
       <c r="I128" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J128" t="s">
         <v>364</v>
@@ -7416,7 +7416,7 @@
         <v>424</v>
       </c>
       <c r="L128" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M128" t="s">
         <v>287</v>
@@ -7448,10 +7448,10 @@
         <v>353</v>
       </c>
       <c r="H129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I129" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="J129" t="s">
         <v>363</v>
@@ -7460,13 +7460,13 @@
         <v>288</v>
       </c>
       <c r="L129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M129" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="N129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7536,10 +7536,10 @@
         <v>321</v>
       </c>
       <c r="H131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I131" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="J131" t="s">
         <v>363</v>
@@ -7548,13 +7548,13 @@
         <v>289</v>
       </c>
       <c r="L131" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M131" t="s">
         <v>457</v>
       </c>
       <c r="N131" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7756,7 +7756,7 @@
         <v>234</v>
       </c>
       <c r="H136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I136" t="s">
         <v>249</v>
@@ -7768,13 +7768,13 @@
         <v>290</v>
       </c>
       <c r="L136" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M136" t="s">
         <v>458</v>
       </c>
       <c r="N136" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="H137" t="s">
         <v>365</v>
@@ -7806,19 +7806,19 @@
         <v>390</v>
       </c>
       <c r="J137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K137" t="s">
         <v>291</v>
       </c>
       <c r="L137" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M137" t="s">
         <v>251</v>
       </c>
       <c r="N137" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7844,25 +7844,25 @@
         <v>292</v>
       </c>
       <c r="H138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I138" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J138" t="s">
         <v>363</v>
       </c>
       <c r="K138" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="L138" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M138" t="s">
         <v>459</v>
       </c>
       <c r="N138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7885,28 +7885,28 @@
         <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="H139" t="s">
         <v>365</v>
       </c>
       <c r="I139" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="J139" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K139" t="s">
         <v>425</v>
       </c>
       <c r="L139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M139" t="s">
         <v>293</v>
       </c>
       <c r="N139" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7932,22 +7932,22 @@
         <v>354</v>
       </c>
       <c r="H140" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I140" t="s">
         <v>294</v>
       </c>
       <c r="J140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K140" t="s">
         <v>211</v>
       </c>
       <c r="L140" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M140" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="N140" t="s">
         <v>363</v>
@@ -8020,22 +8020,22 @@
         <v>295</v>
       </c>
       <c r="H142" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I142" t="s">
         <v>326</v>
       </c>
       <c r="J142" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K142" t="s">
         <v>426</v>
       </c>
       <c r="L142" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M142" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N142" t="s">
         <v>363</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="H143" t="s">
         <v>363</v>
@@ -8070,16 +8070,16 @@
         <v>296</v>
       </c>
       <c r="J143" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K143" t="s">
         <v>427</v>
       </c>
       <c r="L143" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M143" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N143" t="s">
         <v>365</v>
@@ -8146,19 +8146,19 @@
         <v>0</v>
       </c>
       <c r="F145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="H145" t="s">
         <v>363</v>
       </c>
       <c r="I145" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="J145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K145" t="s">
         <v>297</v>
@@ -8170,7 +8170,7 @@
         <v>460</v>
       </c>
       <c r="N145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H146" t="s">
         <v>363</v>
@@ -8202,19 +8202,19 @@
         <v>391</v>
       </c>
       <c r="J146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K146" t="s">
         <v>282</v>
       </c>
       <c r="L146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M146" t="s">
         <v>298</v>
       </c>
       <c r="N146" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -8281,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="H148" t="s">
         <v>365</v>
@@ -8290,19 +8290,19 @@
         <v>269</v>
       </c>
       <c r="J148" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K148" t="s">
         <v>299</v>
       </c>
       <c r="L148" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M148" t="s">
         <v>461</v>
       </c>
       <c r="N148" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -8334,10 +8334,10 @@
         <v>392</v>
       </c>
       <c r="J149" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K149" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L149" t="s">
         <v>364</v>
@@ -8346,7 +8346,7 @@
         <v>300</v>
       </c>
       <c r="N149" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -8372,22 +8372,22 @@
         <v>301</v>
       </c>
       <c r="H150" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I150" t="s">
         <v>325</v>
       </c>
       <c r="J150" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K150" t="s">
         <v>428</v>
       </c>
       <c r="L150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M150" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="N150" t="s">
         <v>363</v>
@@ -8416,16 +8416,16 @@
         <v>302</v>
       </c>
       <c r="H151" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I151" t="s">
         <v>223</v>
       </c>
       <c r="J151" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K151" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="L151" t="s">
         <v>363</v>
@@ -8434,7 +8434,7 @@
         <v>462</v>
       </c>
       <c r="N151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="H153" t="s">
         <v>363</v>
@@ -8510,19 +8510,19 @@
         <v>393</v>
       </c>
       <c r="J153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K153" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="L153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M153" t="s">
         <v>303</v>
       </c>
       <c r="N153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8592,22 +8592,22 @@
         <v>304</v>
       </c>
       <c r="H155" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I155" t="s">
         <v>394</v>
       </c>
       <c r="J155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K155" t="s">
         <v>264</v>
       </c>
       <c r="L155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M155" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="N155" t="s">
         <v>363</v>
@@ -8636,19 +8636,19 @@
         <v>355</v>
       </c>
       <c r="H156" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I156" t="s">
         <v>305</v>
       </c>
       <c r="J156" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K156" t="s">
         <v>281</v>
       </c>
       <c r="L156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M156" t="s">
         <v>215</v>
@@ -8674,25 +8674,25 @@
         <v>0</v>
       </c>
       <c r="F157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
         <v>356</v>
       </c>
       <c r="H157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I157" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="J157" t="s">
         <v>364</v>
       </c>
       <c r="K157" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L157" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M157" t="s">
         <v>306</v>
@@ -8768,22 +8768,22 @@
         <v>357</v>
       </c>
       <c r="H159" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I159" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="J159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K159" t="s">
         <v>307</v>
       </c>
       <c r="L159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M159" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N159" t="s">
         <v>363</v>
@@ -8903,22 +8903,22 @@
         <v>363</v>
       </c>
       <c r="I162" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="J162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K162" t="s">
         <v>429</v>
       </c>
       <c r="L162" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M162" t="s">
         <v>308</v>
       </c>
       <c r="N162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8988,10 +8988,10 @@
         <v>358</v>
       </c>
       <c r="H164" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I164" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J164" t="s">
         <v>363</v>
@@ -9000,13 +9000,13 @@
         <v>309</v>
       </c>
       <c r="L164" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M164" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="N164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9032,16 +9032,16 @@
         <v>231</v>
       </c>
       <c r="H165" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I165" t="s">
         <v>310</v>
       </c>
       <c r="J165" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K165" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="L165" t="s">
         <v>364</v>
@@ -9050,7 +9050,7 @@
         <v>463</v>
       </c>
       <c r="N165" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9076,7 +9076,7 @@
         <v>311</v>
       </c>
       <c r="H166" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I166" t="s">
         <v>215</v>
@@ -9088,13 +9088,13 @@
         <v>228</v>
       </c>
       <c r="L166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M166" t="s">
         <v>464</v>
       </c>
       <c r="N166" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -9120,22 +9120,22 @@
         <v>312</v>
       </c>
       <c r="H167" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I167" t="s">
         <v>301</v>
       </c>
       <c r="J167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K167" t="s">
         <v>430</v>
       </c>
       <c r="L167" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M167" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="N167" t="s">
         <v>363</v>
@@ -9164,25 +9164,25 @@
         <v>313</v>
       </c>
       <c r="H168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I168" t="s">
         <v>395</v>
       </c>
       <c r="J168" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K168" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="L168" t="s">
         <v>363</v>
       </c>
       <c r="M168" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="N168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -9208,10 +9208,10 @@
         <v>359</v>
       </c>
       <c r="H169" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I169" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="J169" t="s">
         <v>363</v>
@@ -9220,13 +9220,13 @@
         <v>314</v>
       </c>
       <c r="L169" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M169" t="s">
         <v>270</v>
       </c>
       <c r="N169" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
         <v>315</v>
@@ -9302,19 +9302,19 @@
         <v>396</v>
       </c>
       <c r="J171" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K171" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L171" t="s">
         <v>364</v>
       </c>
       <c r="M171" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="N171" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9340,19 +9340,19 @@
         <v>316</v>
       </c>
       <c r="H172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I172" t="s">
         <v>277</v>
       </c>
       <c r="J172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K172" t="s">
         <v>431</v>
       </c>
       <c r="L172" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M172" t="s">
         <v>260</v>
@@ -9390,19 +9390,19 @@
         <v>317</v>
       </c>
       <c r="J173" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K173" t="s">
         <v>299</v>
       </c>
       <c r="L173" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M173" t="s">
         <v>465</v>
       </c>
       <c r="N173" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9428,25 +9428,25 @@
         <v>360</v>
       </c>
       <c r="H174" t="s">
+        <v>367</v>
+      </c>
+      <c r="I174" t="s">
+        <v>231</v>
+      </c>
+      <c r="J174" t="s">
         <v>366</v>
       </c>
-      <c r="I174" t="s">
-        <v>233</v>
-      </c>
-      <c r="J174" t="s">
-        <v>369</v>
-      </c>
       <c r="K174" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M174" t="s">
         <v>318</v>
       </c>
       <c r="N174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9510,31 +9510,31 @@
         <v>0</v>
       </c>
       <c r="F176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H176" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I176" t="s">
         <v>397</v>
       </c>
       <c r="J176" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K176" t="s">
         <v>319</v>
       </c>
       <c r="L176" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M176" t="s">
         <v>257</v>
       </c>
       <c r="N176" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9560,10 +9560,10 @@
         <v>320</v>
       </c>
       <c r="H177" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I177" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J177" t="s">
         <v>363</v>
@@ -9572,13 +9572,13 @@
         <v>432</v>
       </c>
       <c r="L177" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M177" t="s">
         <v>269</v>
       </c>
       <c r="N177" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9601,28 +9601,28 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="H178" t="s">
         <v>363</v>
       </c>
       <c r="I178" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="J178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K178" t="s">
         <v>321</v>
       </c>
       <c r="L178" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M178" t="s">
         <v>466</v>
       </c>
       <c r="N178" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9648,25 +9648,25 @@
         <v>361</v>
       </c>
       <c r="H179" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I179" t="s">
         <v>322</v>
       </c>
       <c r="J179" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K179" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="L179" t="s">
         <v>363</v>
       </c>
       <c r="M179" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="N179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9686,31 +9686,31 @@
         <v>0</v>
       </c>
       <c r="F180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
         <v>323</v>
       </c>
       <c r="H180" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I180" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="J180" t="s">
         <v>363</v>
       </c>
       <c r="K180" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="L180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M180" t="s">
         <v>467</v>
       </c>
       <c r="N180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>324</v>
@@ -9742,19 +9742,19 @@
         <v>398</v>
       </c>
       <c r="J181" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K181" t="s">
         <v>225</v>
       </c>
       <c r="L181" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M181" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="N181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9824,22 +9824,22 @@
         <v>325</v>
       </c>
       <c r="H183" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I183" t="s">
         <v>261</v>
       </c>
       <c r="J183" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K183" t="s">
         <v>433</v>
       </c>
       <c r="L183" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M183" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="N183" t="s">
         <v>363</v>
@@ -9868,25 +9868,25 @@
         <v>326</v>
       </c>
       <c r="H184" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I184" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J184" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K184" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="L184" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M184" t="s">
         <v>468</v>
       </c>
       <c r="N184" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9918,19 +9918,19 @@
         <v>327</v>
       </c>
       <c r="J185" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K185" t="s">
         <v>434</v>
       </c>
       <c r="L185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M185" t="s">
         <v>242</v>
       </c>
       <c r="N185" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9956,22 +9956,22 @@
         <v>362</v>
       </c>
       <c r="H186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I186" t="s">
         <v>328</v>
       </c>
       <c r="J186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K186" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="L186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M186" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="N186" t="s">
         <v>363</v>
@@ -10044,25 +10044,25 @@
         <v>329</v>
       </c>
       <c r="H188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I188" t="s">
         <v>399</v>
       </c>
       <c r="J188" t="s">
+        <v>367</v>
+      </c>
+      <c r="K188" t="s">
+        <v>258</v>
+      </c>
+      <c r="L188" t="s">
+        <v>365</v>
+      </c>
+      <c r="M188" t="s">
+        <v>274</v>
+      </c>
+      <c r="N188" t="s">
         <v>366</v>
-      </c>
-      <c r="K188" t="s">
-        <v>268</v>
-      </c>
-      <c r="L188" t="s">
-        <v>364</v>
-      </c>
-      <c r="M188" t="s">
-        <v>249</v>
-      </c>
-      <c r="N188" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
         <v>330</v>
@@ -10091,13 +10091,13 @@
         <v>368</v>
       </c>
       <c r="I189" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="J189" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K189" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L189" t="s">
         <v>364</v>
@@ -10106,7 +10106,7 @@
         <v>469</v>
       </c>
       <c r="N189" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10138,19 +10138,19 @@
         <v>318</v>
       </c>
       <c r="J190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K190" t="s">
         <v>331</v>
       </c>
       <c r="L190" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M190" t="s">
         <v>470</v>
       </c>
       <c r="N190" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="F192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I192" t="s">
         <v>332</v>
@@ -10229,16 +10229,16 @@
         <v>368</v>
       </c>
       <c r="K192" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="L192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M192" t="s">
         <v>471</v>
       </c>
       <c r="N192" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10258,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="F193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="H193" t="s">
         <v>363</v>
@@ -10270,19 +10270,19 @@
         <v>333</v>
       </c>
       <c r="J193" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K193" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="L193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M193" t="s">
         <v>472</v>
       </c>
       <c r="N193" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
